--- a/assets/site.xlsx
+++ b/assets/site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCE2F206-61BF-4780-B522-09E845CDBF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBF9DA5-5FC3-488C-A749-2270D31C3CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5F4913DE-BB22-48F4-A57F-13BA89179192}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5F4913DE-BB22-48F4-A57F-13BA89179192}"/>
   </bookViews>
   <sheets>
     <sheet name="Magnet" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="121">
   <si>
     <t>magnet</t>
   </si>
@@ -209,22 +209,7 @@
     <t>450*880*710</t>
   </si>
   <si>
-    <t>AutoSampler</t>
-  </si>
-  <si>
-    <t>Sample Case 24</t>
-  </si>
-  <si>
     <t>45Nl/min</t>
-  </si>
-  <si>
-    <t>Sample Case Plus</t>
-  </si>
-  <si>
-    <t>Sample Case Heated &amp; Cooled</t>
-  </si>
-  <si>
-    <t>Sample Jet</t>
   </si>
   <si>
     <t>전력소모</t>
@@ -412,6 +397,30 @@
   </si>
   <si>
     <t>장비 무게(kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SampleCase Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SampleCase Heated &amp; Cooled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SampleJet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autosampler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SampleCase24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1499,7 +1508,7 @@
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
         <v>45</v>
@@ -1564,10 +1573,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C00E1B4-3C0E-4F55-912A-5694C91E9C90}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1579,13 +1588,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
         <v>45</v>
@@ -1596,7 +1605,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1608,12 +1617,12 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1625,12 +1634,12 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1642,12 +1651,12 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1659,7 +1668,24 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1672,7 +1698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A03F88B-7726-416A-9279-4322F43A0485}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -1692,62 +1718,62 @@
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
         <v>45</v>
       </c>
       <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" t="s">
         <v>63</v>
-      </c>
-      <c r="H1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1778,120 +1804,120 @@
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
         <v>45</v>
       </c>
       <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" t="s">
         <v>63</v>
-      </c>
-      <c r="H1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C2">
         <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
         <v>74</v>
-      </c>
-      <c r="I2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C3">
         <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F3">
         <v>460</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F5">
         <v>460</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1929,18 +1955,18 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -1948,10 +1974,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C4">
         <v>70</v>
@@ -1978,88 +2004,88 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/assets/site.xlsx
+++ b/assets/site.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBF9DA5-5FC3-488C-A749-2270D31C3CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F083590-079D-4107-8A84-1A20DEF40EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5F4913DE-BB22-48F4-A57F-13BA89179192}"/>
   </bookViews>
@@ -416,11 +416,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SampleCase24</t>
+    <t>이거</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이거</t>
+    <t>SampleCase 24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1576,7 +1576,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6">
         <v>0</v>

--- a/assets/site.xlsx
+++ b/assets/site.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F083590-079D-4107-8A84-1A20DEF40EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0404781B-D31F-4953-B6AB-9985D6AACB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5F4913DE-BB22-48F4-A57F-13BA89179192}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5F4913DE-BB22-48F4-A57F-13BA89179192}"/>
   </bookViews>
   <sheets>
     <sheet name="Magnet" sheetId="2" r:id="rId1"/>
     <sheet name="Console" sheetId="3" r:id="rId2"/>
     <sheet name="Autosampler" sheetId="4" r:id="rId3"/>
-    <sheet name="CPP" sheetId="5" r:id="rId4"/>
+    <sheet name="CPP Acc" sheetId="5" r:id="rId4"/>
     <sheet name="CRP" sheetId="8" r:id="rId5"/>
     <sheet name="ETC" sheetId="6" r:id="rId6"/>
     <sheet name="HeTrans" sheetId="7" r:id="rId7"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="120">
   <si>
     <t>magnet</t>
   </si>
@@ -234,9 +234,6 @@
   </si>
   <si>
     <t>쿨링워터온도</t>
-  </si>
-  <si>
-    <t>Prodigy</t>
   </si>
   <si>
     <t>600*400*460</t>
@@ -416,11 +413,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이거</t>
+    <t>SampleCase 24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SampleCase 24</t>
+    <t>Prodigy Unit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1508,7 +1505,7 @@
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
         <v>45</v>
@@ -1573,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C00E1B4-3C0E-4F55-912A-5694C91E9C90}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1588,13 +1585,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
         <v>45</v>
@@ -1605,7 +1602,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1622,7 +1619,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1639,7 +1636,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1656,7 +1653,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1669,23 +1666,6 @@
       </c>
       <c r="E5" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1698,13 +1678,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A03F88B-7726-416A-9279-4322F43A0485}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
@@ -1718,7 +1698,7 @@
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
         <v>56</v>
@@ -1750,30 +1730,30 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
         <v>64</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
       </c>
       <c r="C2">
         <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
         <v>68</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1804,7 +1784,7 @@
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
         <v>56</v>
@@ -1836,88 +1816,88 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
         <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
       </c>
       <c r="C2">
         <v>250</v>
       </c>
       <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
         <v>73</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
         <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
       </c>
       <c r="C3">
         <v>142</v>
       </c>
       <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
         <v>77</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
       </c>
       <c r="F3">
         <v>460</v>
       </c>
       <c r="H3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" t="s">
         <v>79</v>
-      </c>
-      <c r="J3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
         <v>81</v>
-      </c>
-      <c r="B4" t="s">
-        <v>82</v>
       </c>
       <c r="C4">
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
         <v>84</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>85</v>
       </c>
-      <c r="D5" t="s">
-        <v>86</v>
-      </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5">
         <v>460</v>
       </c>
       <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" t="s">
         <v>87</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>88</v>
-      </c>
-      <c r="L5" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1955,18 +1935,18 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
         <v>90</v>
-      </c>
-      <c r="E2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
         <v>92</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -1974,10 +1954,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
         <v>94</v>
-      </c>
-      <c r="B4" t="s">
-        <v>95</v>
       </c>
       <c r="C4">
         <v>70</v>
@@ -2004,88 +1984,88 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
         <v>96</v>
-      </c>
-      <c r="E1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
         <v>99</v>
-      </c>
-      <c r="E3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/assets/site.xlsx
+++ b/assets/site.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0404781B-D31F-4953-B6AB-9985D6AACB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4982697A-9C25-4EBE-BB97-710A41DFEB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5F4913DE-BB22-48F4-A57F-13BA89179192}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{5F4913DE-BB22-48F4-A57F-13BA89179192}"/>
   </bookViews>
   <sheets>
     <sheet name="Magnet" sheetId="2" r:id="rId1"/>
     <sheet name="Console" sheetId="3" r:id="rId2"/>
     <sheet name="Autosampler" sheetId="4" r:id="rId3"/>
     <sheet name="CPP Acc" sheetId="5" r:id="rId4"/>
-    <sheet name="CRP" sheetId="8" r:id="rId5"/>
+    <sheet name="CRP Acc" sheetId="8" r:id="rId5"/>
     <sheet name="ETC" sheetId="6" r:id="rId6"/>
     <sheet name="HeTrans" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -1678,7 +1678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A03F88B-7726-416A-9279-4322F43A0485}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1766,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3D4E5B-DAEB-445A-8C53-2573F755E8D5}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/assets/site.xlsx
+++ b/assets/site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4982697A-9C25-4EBE-BB97-710A41DFEB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93EB49F-72A8-4990-A917-E7D0EFDE6052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{5F4913DE-BB22-48F4-A57F-13BA89179192}"/>
+    <workbookView xWindow="1590" yWindow="1410" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{5F4913DE-BB22-48F4-A57F-13BA89179192}"/>
   </bookViews>
   <sheets>
     <sheet name="Magnet" sheetId="2" r:id="rId1"/>
@@ -1678,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A03F88B-7726-416A-9279-4322F43A0485}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1741,6 +1741,27 @@
       <c r="D2" t="s">
         <v>65</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1749,11 +1770,32 @@
       <c r="B3" t="s">
         <v>67</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>68</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
       <c r="I3" t="s">
         <v>69</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1766,7 +1808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3D4E5B-DAEB-445A-8C53-2573F755E8D5}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>

--- a/assets/site.xlsx
+++ b/assets/site.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93EB49F-72A8-4990-A917-E7D0EFDE6052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C53B88-8025-41FD-A2CA-96BC8F908B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="1410" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{5F4913DE-BB22-48F4-A57F-13BA89179192}"/>
+    <workbookView xWindow="1590" yWindow="1410" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{5F4913DE-BB22-48F4-A57F-13BA89179192}"/>
   </bookViews>
   <sheets>
     <sheet name="Magnet" sheetId="2" r:id="rId1"/>
     <sheet name="Console" sheetId="3" r:id="rId2"/>
     <sheet name="Autosampler" sheetId="4" r:id="rId3"/>
-    <sheet name="CPP Acc" sheetId="5" r:id="rId4"/>
-    <sheet name="CRP Acc" sheetId="8" r:id="rId5"/>
+    <sheet name="CPPAcc" sheetId="5" r:id="rId4"/>
+    <sheet name="CRPAcc" sheetId="8" r:id="rId5"/>
     <sheet name="ETC" sheetId="6" r:id="rId6"/>
     <sheet name="HeTrans" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -1678,7 +1678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A03F88B-7726-416A-9279-4322F43A0485}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1808,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3D4E5B-DAEB-445A-8C53-2573F755E8D5}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/assets/site.xlsx
+++ b/assets/site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C53B88-8025-41FD-A2CA-96BC8F908B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B1BB7A-5BDA-4DD6-B1CA-C2BE6F0E421B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="1410" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{5F4913DE-BB22-48F4-A57F-13BA89179192}"/>
+    <workbookView xWindow="1590" yWindow="1410" windowWidth="21600" windowHeight="11295" activeTab="6" xr2:uid="{5F4913DE-BB22-48F4-A57F-13BA89179192}"/>
   </bookViews>
   <sheets>
     <sheet name="Magnet" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="CPPAcc" sheetId="5" r:id="rId4"/>
     <sheet name="CRPAcc" sheetId="8" r:id="rId5"/>
     <sheet name="ETC" sheetId="6" r:id="rId6"/>
-    <sheet name="HeTrans" sheetId="7" r:id="rId7"/>
+    <sheet name="HeTransferline" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1808,7 +1808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3D4E5B-DAEB-445A-8C53-2573F755E8D5}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -2015,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6BF4B4-5B6C-4822-B2AC-2C315992B835}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/assets/site.xlsx
+++ b/assets/site.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B1BB7A-5BDA-4DD6-B1CA-C2BE6F0E421B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5336F85F-E59C-4857-9DCC-5A3B4A20B16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1590" yWindow="1410" windowWidth="21600" windowHeight="11295" activeTab="6" xr2:uid="{5F4913DE-BB22-48F4-A57F-13BA89179192}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="122">
   <si>
     <t>magnet</t>
   </si>
@@ -342,55 +342,6 @@
   </si>
   <si>
     <t>• 10 m ~60 m</t>
-  </si>
-  <si>
-    <t>For Outdoor Helium Compressors</t>
-  </si>
-  <si>
-    <t>• 3 m indoor line / 20 m outdoor line</t>
-  </si>
-  <si>
-    <t>• 6 m indoor line / 10 m outdoor line</t>
-  </si>
-  <si>
-    <t>• 3 m indoor line / 10 m outdoor line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 3 m indoor line / 30 m outdoor line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 6 m indoor line / 20 m outdoor line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 6 m indoor line / 30 m outdoor line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 10 m indoor line / 10 m outdoor line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 10 m indoor line / 20 m outdoor line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 10 m indoor line / 30 m outdoor line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 20 m indoor line / 10 m outdoor line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 20 m indoor line / 20 m outdoor line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 30 m indoor line / 10 m outdoor line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>장비 무게(kg)</t>
@@ -418,6 +369,65 @@
   </si>
   <si>
     <t>Prodigy Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 m indoor line / 10 m outdoor line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 m indoor line / 20 m outdoor line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 m indoor line / 30 m outdoor line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 m indoor line / 10 m outdoor line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 m indoor line / 20 m outdoor line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 m indoor line / 30 m outdoor line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 m indoor line / 10 m outdoor line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 m indoor line / 20 m outdoor line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 m indoor line / 30 m outdoor line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 m indoor line / 10 m outdoor line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 m indoor line / 10 m outdoor line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 m indoor line / 20 m outdoor line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeTransferline</t>
+  </si>
+  <si>
+    <t>indoor line(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outdoor line(m)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1505,7 +1515,7 @@
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
         <v>45</v>
@@ -1585,13 +1595,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
         <v>45</v>
@@ -1602,7 +1612,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1619,7 +1629,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1636,7 +1646,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1653,7 +1663,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1698,7 +1708,7 @@
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
         <v>56</v>
@@ -1730,7 +1740,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -1826,7 +1836,7 @@
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
         <v>56</v>
@@ -2013,101 +2023,181 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6BF4B4-5B6C-4822-B2AC-2C315992B835}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>95</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>98</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B17" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/assets/site.xlsx
+++ b/assets/site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5336F85F-E59C-4857-9DCC-5A3B4A20B16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA35A0E1-423D-4AA1-8731-1D44E424FA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="1410" windowWidth="21600" windowHeight="11295" activeTab="6" xr2:uid="{5F4913DE-BB22-48F4-A57F-13BA89179192}"/>
+    <workbookView xWindow="1590" yWindow="1410" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{5F4913DE-BB22-48F4-A57F-13BA89179192}"/>
   </bookViews>
   <sheets>
     <sheet name="Magnet" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="124">
   <si>
     <t>magnet</t>
   </si>
@@ -428,6 +428,14 @@
   </si>
   <si>
     <t>outdoor line(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPPAcc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRPAcc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1688,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A03F88B-7726-416A-9279-4322F43A0485}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1704,6 +1712,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
       <c r="B1" t="s">
         <v>43</v>
       </c>
@@ -1819,7 +1830,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1832,6 +1843,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
       <c r="B1" t="s">
         <v>43</v>
       </c>
@@ -2025,7 +2039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6BF4B4-5B6C-4822-B2AC-2C315992B835}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>

--- a/assets/site.xlsx
+++ b/assets/site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA35A0E1-423D-4AA1-8731-1D44E424FA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAFE726-0BCC-412C-86E9-94E7DCC4BDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="1410" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{5F4913DE-BB22-48F4-A57F-13BA89179192}"/>
+    <workbookView xWindow="1590" yWindow="1410" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{5F4913DE-BB22-48F4-A57F-13BA89179192}"/>
   </bookViews>
   <sheets>
     <sheet name="Magnet" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="125">
   <si>
     <t>magnet</t>
   </si>
@@ -284,9 +284,6 @@
     <t>3/4"</t>
   </si>
   <si>
-    <t>indoor</t>
-  </si>
-  <si>
     <t>270*600*450</t>
   </si>
   <si>
@@ -436,6 +433,14 @@
   </si>
   <si>
     <t>CRPAcc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSNL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indoor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1523,7 +1528,7 @@
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
         <v>45</v>
@@ -1603,13 +1608,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
         <v>45</v>
@@ -1620,7 +1625,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1637,7 +1642,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1654,7 +1659,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1671,7 +1676,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1696,7 +1701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A03F88B-7726-416A-9279-4322F43A0485}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1713,13 +1718,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
         <v>56</v>
@@ -1751,7 +1756,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -1827,10 +1832,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3D4E5B-DAEB-445A-8C53-2573F755E8D5}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1840,17 +1845,18 @@
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
         <v>56</v>
@@ -1928,27 +1934,27 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
         <v>80</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
       </c>
       <c r="C4">
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
         <v>83</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>85</v>
       </c>
       <c r="E5" t="s">
         <v>77</v>
@@ -1957,13 +1963,51 @@
         <v>460</v>
       </c>
       <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" t="s">
         <v>86</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>87</v>
       </c>
-      <c r="L5" t="s">
-        <v>88</v>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2001,18 +2045,18 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
         <v>89</v>
-      </c>
-      <c r="E2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
         <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -2020,10 +2064,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
         <v>93</v>
-      </c>
-      <c r="B4" t="s">
-        <v>94</v>
       </c>
       <c r="C4">
         <v>70</v>
@@ -2052,18 +2096,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
         <v>119</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -2074,7 +2118,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -2085,7 +2129,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2096,7 +2140,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -2107,7 +2151,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -2118,7 +2162,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2129,7 +2173,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -2140,7 +2184,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -2151,7 +2195,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -2162,7 +2206,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -2173,7 +2217,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -2184,7 +2228,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -2195,23 +2239,23 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
         <v>95</v>
-      </c>
-      <c r="B15" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" t="s">
         <v>98</v>
-      </c>
-      <c r="B17" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
